--- a/use case.xlsx
+++ b/use case.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student.MCALAB\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Online Real Estate Bussiness</t>
   </si>
@@ -67,6 +72,60 @@
   </si>
   <si>
     <t>Send feed backs</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Admin can view the details of all the registred sellers</t>
+  </si>
+  <si>
+    <t>admin can view the details of all the registred buyers</t>
+  </si>
+  <si>
+    <t>view all the property details that can be registred by sellers</t>
+  </si>
+  <si>
+    <t>view feedbacks from buyers ,sellers and viewers</t>
+  </si>
+  <si>
+    <t>After registration a fixed amount of fees can be pay by both the sellers and buyers</t>
+  </si>
+  <si>
+    <t>After paying amount they can login to their personal profile</t>
+  </si>
+  <si>
+    <t>sellers and buyers can edit ,delete,add details to there profile</t>
+  </si>
+  <si>
+    <t>When matching requirements come the buyer can send request to the seller</t>
+  </si>
+  <si>
+    <t>When a  new property is added to the site it can be view by the buyer as a notification</t>
+  </si>
+  <si>
+    <t>visitor can just view the site and wants to know more details they can create an account</t>
+  </si>
+  <si>
+    <t>they can send feed backs to admin</t>
+  </si>
+  <si>
+    <t>send feedbacks</t>
+  </si>
+  <si>
+    <t>both buyer and seller can send feedbacks to admin about the site</t>
+  </si>
+  <si>
+    <t>Add requirements</t>
+  </si>
+  <si>
+    <t>They can add there requirements</t>
+  </si>
+  <si>
+    <t>Search users needs</t>
+  </si>
+  <si>
+    <t>They are able to search property according to there needs</t>
   </si>
 </sst>
 </file>
@@ -116,11 +175,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -169,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +522,9 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -445,21 +538,33 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -473,38 +578,83 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/use case.xlsx
+++ b/use case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Online Real Estate Bussiness</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>They are able to search property according to there needs</t>
+  </si>
+  <si>
+    <t>view buyers/ sellers request</t>
+  </si>
+  <si>
+    <t>view the details of requested peoples</t>
+  </si>
+  <si>
+    <t>Approve/Reject request</t>
+  </si>
+  <si>
+    <t>Admin can delete or confirm the request</t>
   </si>
 </sst>
 </file>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A25" sqref="A25:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,108 +564,126 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G26" t="s">
         <v>28</v>
       </c>
     </row>

--- a/use case.xlsx
+++ b/use case.xlsx
@@ -515,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:O26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,34 +606,34 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,22 +668,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>
